--- a/Свободное время.xlsx
+++ b/Свободное время.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\pythonProject3\квадрат даша\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlad_\PycharmProjects\algebra-dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B047BF4-273F-451B-920C-BDF8A1DB85A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>понедельник</t>
   </si>
@@ -87,12 +88,18 @@
   </si>
   <si>
     <t>Андрей</t>
+  </si>
+  <si>
+    <t>c 16:00 до 18:00</t>
+  </si>
+  <si>
+    <t>c 10:00 до 16:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +525,27 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
